--- a/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
+++ b/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3A759-5795-F542-8FB4-2D0F65F89E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EE298-E7BA-684C-BC47-9199C927B91A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-18640" windowWidth="28800" windowHeight="16460" tabRatio="711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="4431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7182" uniqueCount="4431">
   <si>
     <t>AIRM_URN</t>
   </si>
@@ -13690,7 +13690,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -13819,6 +13819,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -13827,124 +13830,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="286">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -16597,6 +16482,124 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -16616,25 +16619,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1609" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:M1609" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1610" totalsRowShown="0" headerRowDxfId="285" headerRowBorderDxfId="284" tableBorderDxfId="283" totalsRowBorderDxfId="282">
+  <autoFilter ref="A1:M1610" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L349">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="281"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="280"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Concept Type"/>
-    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="279"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="278"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="277"/>
+    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="276"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="275"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="274"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="273"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="272"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -17114,11 +17117,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1609"/>
+  <dimension ref="A1:Q1610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C661" sqref="C661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34793,20 +34796,19 @@
       <c r="A655" t="s">
         <v>4140</v>
       </c>
-      <c r="B655" t="s">
-        <v>3609</v>
-      </c>
+      <c r="B655" s="36"/>
       <c r="C655"/>
       <c r="D655" t="s">
-        <v>4141</v>
-      </c>
-      <c r="E655"/>
-      <c r="F655"/>
-      <c r="G655"/>
-      <c r="I655"/>
-      <c r="J655"/>
-      <c r="K655"/>
-      <c r="L655"/>
+        <v>4140</v>
+      </c>
+      <c r="E655" s="36"/>
+      <c r="F655" s="46"/>
+      <c r="G655" s="46"/>
+      <c r="H655" s="38"/>
+      <c r="I655" s="36"/>
+      <c r="J655" s="36"/>
+      <c r="K655" s="36"/>
+      <c r="L655" s="36"/>
       <c r="M655" s="17"/>
       <c r="N655" s="16"/>
       <c r="P655" s="31"/>
@@ -34817,16 +34819,14 @@
         <v>4140</v>
       </c>
       <c r="B656" t="s">
-        <v>4142</v>
+        <v>3609</v>
       </c>
       <c r="C656"/>
       <c r="D656" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="E656"/>
-      <c r="F656" t="s">
-        <v>4300</v>
-      </c>
+      <c r="F656"/>
       <c r="G656"/>
       <c r="I656"/>
       <c r="J656"/>
@@ -34842,15 +34842,15 @@
         <v>4140</v>
       </c>
       <c r="B657" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="C657"/>
       <c r="D657" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="E657"/>
       <c r="F657" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="G657"/>
       <c r="I657"/>
@@ -34867,15 +34867,15 @@
         <v>4140</v>
       </c>
       <c r="B658" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="C658"/>
       <c r="D658" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="E658"/>
       <c r="F658" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="G658"/>
       <c r="I658"/>
@@ -34892,15 +34892,15 @@
         <v>4140</v>
       </c>
       <c r="B659" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="C659"/>
       <c r="D659" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="E659"/>
       <c r="F659" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="G659"/>
       <c r="I659"/>
@@ -34913,11 +34913,25 @@
       <c r="Q659" s="16"/>
     </row>
     <row r="660" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F660" s="23"/>
-      <c r="G660" s="23"/>
-      <c r="H660" s="17"/>
-      <c r="I660" s="16"/>
-      <c r="L660" s="16"/>
+      <c r="A660" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B660" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C660"/>
+      <c r="D660" t="s">
+        <v>4149</v>
+      </c>
+      <c r="E660"/>
+      <c r="F660" t="s">
+        <v>4303</v>
+      </c>
+      <c r="G660"/>
+      <c r="I660"/>
+      <c r="J660"/>
+      <c r="K660"/>
+      <c r="L660"/>
       <c r="M660" s="17"/>
       <c r="N660" s="16"/>
       <c r="P660" s="31"/>
@@ -45362,9 +45376,20 @@
       <c r="P1609" s="31"/>
       <c r="Q1609" s="16"/>
     </row>
+    <row r="1610" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F1610" s="23"/>
+      <c r="G1610" s="23"/>
+      <c r="H1610" s="17"/>
+      <c r="I1610" s="16"/>
+      <c r="L1610" s="16"/>
+      <c r="M1610" s="17"/>
+      <c r="N1610" s="16"/>
+      <c r="P1610" s="31"/>
+      <c r="Q1610" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="374" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -45387,15 +45412,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="284" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="346" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="356" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="282" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="353" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
@@ -45418,17 +45443,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="281" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="352" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H349 H660:H1609">
-    <cfRule type="cellIs" dxfId="280" priority="351" operator="equal">
+  <conditionalFormatting sqref="H2:H349 H661:H1610">
+    <cfRule type="cellIs" dxfId="264" priority="351" operator="equal">
       <formula>"OUA Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="279" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="343" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="344">
@@ -45451,7 +45476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="278" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="338" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="339">
@@ -45474,15 +45499,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="277" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="336" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="337" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K39 K41 K43:K50">
-    <cfRule type="cellIs" dxfId="275" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="377" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="378">
@@ -45505,7 +45530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H315">
-    <cfRule type="cellIs" dxfId="274" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="391" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="392">
@@ -45528,15 +45553,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="273" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="311" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="316" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="271" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="313" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -45559,28 +45584,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="270" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="269" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="306" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="307" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="267" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="297" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="265" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="299" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -45603,28 +45628,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="264" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="298" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="263" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="292" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="293" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="261" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="280" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="285" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="259" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="282" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="283">
@@ -45647,20 +45672,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="258" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="281" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="257" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="275" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="276" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="255" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="286" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="287">
@@ -45683,15 +45708,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="254" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="263" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="268" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="252" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="265" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="266">
@@ -45714,20 +45739,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="251" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="264" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="258" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="259" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="248" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="269" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -45750,15 +45775,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="249" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="254" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="245" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="251" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -45781,12 +45806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="250" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="243" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="243" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="244">
@@ -45809,23 +45834,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="242" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="241" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="242" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="240" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="232" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="237" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="234" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -45848,12 +45873,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="237" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="233" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="226" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="227">
@@ -45876,882 +45901,882 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="235" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="224" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="225" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:L82 K84:L84 K95:L98 K128:L132 K136:L139 K145:L152 K154:L155 K157:L163 K167:L171 K174:L185 K187:L188 K190:L190 K201:L201 K211:L212 K217:L217 K219:L222 K224:L224 K233:L233 K249:L250 K252:L255 K257:L258 K262:L271 K273:L273 K275:L277 K279:L279 K287:L289 K293:L293 K307:L311 K298:L304 K313:L313 K316:L316 K318:L318 K323:L324 K328:L333 K335:L335 K340:L340 K342:L342 K346:L346 K348:L348 K87:L93 K58:L77 K109:L118 K120:L125 K141:L141 K192:L193 K295:L295 K51:L56 K100:L107 K196:L199 K240:L246 K283:L284">
-    <cfRule type="containsText" dxfId="233" priority="219" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="220" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="216" priority="220" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202:L202">
-    <cfRule type="containsText" dxfId="231" priority="179" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="215" priority="179" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="180" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="214" priority="180" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:L83">
-    <cfRule type="containsText" dxfId="229" priority="213" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="214" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:L78">
-    <cfRule type="containsText" dxfId="227" priority="215" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="211" priority="215" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="216" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="210" priority="216" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:L94">
-    <cfRule type="containsText" dxfId="225" priority="211" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="212" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="208" priority="212" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="containsText" dxfId="223" priority="209" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="210" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="206" priority="210" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:L126">
-    <cfRule type="containsText" dxfId="221" priority="207" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="208" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="204" priority="208" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133:L133">
-    <cfRule type="containsText" dxfId="219" priority="205" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="206" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="202" priority="206" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="containsText" dxfId="217" priority="203" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="204" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="200" priority="204" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:L144">
-    <cfRule type="containsText" dxfId="215" priority="201" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="202" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="198" priority="202" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="containsText" dxfId="213" priority="199" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="200" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="196" priority="200" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="containsText" dxfId="211" priority="197" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="198" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="194" priority="198" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L165">
-    <cfRule type="containsText" dxfId="209" priority="195" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="196" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="containsText" dxfId="207" priority="193" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="194" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="190" priority="194" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172:L172">
-    <cfRule type="containsText" dxfId="205" priority="191" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="192" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="188" priority="192" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="containsText" dxfId="203" priority="189" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="190" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="186" priority="190" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186">
-    <cfRule type="containsText" dxfId="201" priority="187" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="188" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="184" priority="188" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:L189">
-    <cfRule type="containsText" dxfId="199" priority="185" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="186" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="182" priority="186" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:L195">
-    <cfRule type="containsText" dxfId="197" priority="183" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="184" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="180" priority="184" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:L200">
-    <cfRule type="containsText" dxfId="195" priority="181" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="182" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="178" priority="182" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:L203">
-    <cfRule type="containsText" dxfId="193" priority="177" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K203)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="178" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204:L204">
-    <cfRule type="containsText" dxfId="191" priority="175" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="176" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205:L205">
-    <cfRule type="containsText" dxfId="189" priority="173" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="174" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:L206">
-    <cfRule type="containsText" dxfId="187" priority="171" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="172" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207:L207">
-    <cfRule type="containsText" dxfId="185" priority="169" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="170" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208:L208">
-    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="168" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209:L209">
-    <cfRule type="containsText" dxfId="181" priority="165" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="166" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210:L210">
-    <cfRule type="containsText" dxfId="179" priority="163" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="164" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L213">
-    <cfRule type="containsText" dxfId="177" priority="161" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="162" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214:L214">
-    <cfRule type="containsText" dxfId="175" priority="159" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K214)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="160" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K214)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K215:L215">
-    <cfRule type="containsText" dxfId="173" priority="157" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="158" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K216:L216">
-    <cfRule type="containsText" dxfId="171" priority="155" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="156" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218:L218">
-    <cfRule type="containsText" dxfId="169" priority="153" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="154" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K223:L223">
-    <cfRule type="containsText" dxfId="167" priority="151" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="152" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K225:L225">
-    <cfRule type="containsText" dxfId="165" priority="149" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="150" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K228:L228">
-    <cfRule type="containsText" dxfId="163" priority="147" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="148" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K227:L227">
-    <cfRule type="containsText" dxfId="161" priority="145" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="146" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K226:L226">
-    <cfRule type="containsText" dxfId="159" priority="143" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="144" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K229:L229">
-    <cfRule type="containsText" dxfId="157" priority="141" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="142" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K256:L256">
-    <cfRule type="containsText" dxfId="155" priority="139" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="140" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K231:L231">
-    <cfRule type="containsText" dxfId="153" priority="137" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K231)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="138" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K232:L232">
-    <cfRule type="containsText" dxfId="151" priority="135" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="136" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K232)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K234:L234">
-    <cfRule type="containsText" dxfId="149" priority="133" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="134" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K235:L235">
-    <cfRule type="containsText" dxfId="147" priority="131" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="132" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236:L236">
-    <cfRule type="containsText" dxfId="145" priority="129" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="130" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237:L237">
-    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="128" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K238:L238">
-    <cfRule type="containsText" dxfId="141" priority="125" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="126" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K239:L239">
-    <cfRule type="containsText" dxfId="139" priority="123" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="124" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K247:L247">
-    <cfRule type="containsText" dxfId="137" priority="121" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="122" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248:L248">
-    <cfRule type="containsText" dxfId="135" priority="119" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="120" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K251:L251">
-    <cfRule type="containsText" dxfId="133" priority="117" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="118" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259:L259">
-    <cfRule type="containsText" dxfId="131" priority="115" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="116" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K261:L261">
-    <cfRule type="containsText" dxfId="129" priority="113" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="114" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272:L272">
-    <cfRule type="containsText" dxfId="127" priority="111" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="112" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274:L274">
-    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K274)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="110" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278:L278">
-    <cfRule type="containsText" dxfId="123" priority="107" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="108" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280:L280">
-    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="106" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282:L282">
-    <cfRule type="containsText" dxfId="119" priority="103" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="104" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K285:L285">
-    <cfRule type="containsText" dxfId="117" priority="101" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="102" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K286:L286">
-    <cfRule type="containsText" dxfId="115" priority="99" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="100" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K292:L292">
-    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="98" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K296:L296">
-    <cfRule type="containsText" dxfId="111" priority="95" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297:L297">
-    <cfRule type="containsText" dxfId="109" priority="93" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K297)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="94" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="containsText" dxfId="107" priority="91" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="92" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:L306">
-    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K312:L312">
-    <cfRule type="containsText" dxfId="103" priority="87" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="88" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314:L314">
-    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K314)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="86" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K314)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315:L315">
-    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K315)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="84" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K315)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317:L317">
-    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K317)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K317)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319:L319">
-    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K319)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="80" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K319)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320:L320">
-    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K320)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="78" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K320)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321:L321">
-    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K321)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="76" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322:L322">
-    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K322)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325:L325">
-    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K325)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326:L326">
-    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K326)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327:L327">
-    <cfRule type="containsText" dxfId="83" priority="67" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="68" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K334:L334">
-    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K334)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K336:L336">
-    <cfRule type="containsText" dxfId="79" priority="63" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K336)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="64" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337:L337">
-    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338:L338">
-    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339:L339">
-    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K339)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341:L341">
-    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343:L343">
-    <cfRule type="containsText" dxfId="69" priority="53" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="54" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K344:L344">
-    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="52" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K347:L347">
-    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K349:L349">
-    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K349)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K345:L345">
-    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:L85">
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:L86">
-    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:L57">
-    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="40" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108:L108">
-    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:L119">
-    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:L127">
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134:L134">
-    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:L135">
-    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:L140">
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:L191">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194:L194">
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:L260">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281:L281">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K290:L290">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K291:L291">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K294:L294">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L166">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K305)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F626:G659">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Generalised">
+  <conditionalFormatting sqref="F626:G660">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",F626)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",F626)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46761,7 +46786,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OUA Element Definition" prompt="Textual definition of the OUA element." sqref="E2:E50" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unique designator of the OUA  element, e.g., URN or URI" sqref="D3:D50" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="In case of &quot;Out of scope&quot; describe why. In case of an AIRM CR give its title or a brief description._x000a_" sqref="K2:L349" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identifier of the Change Request (only for CR special case)" sqref="I2:J349 I660:J1609" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identifier of the Change Request (only for CR special case)" sqref="I2:J349 I661:J1610" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="URN of the AIRM element" sqref="F81:G81 M2:M50 F2:G50 M81" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46776,7 +46801,7 @@
           <x14:formula1>
             <xm:f>Protected_fields!$A$7:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H349 H660:H1609</xm:sqref>
+          <xm:sqref>H2:H349 H661:H1610</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Qualify semantic correspondence between OUA and AIRM element(s)." xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
@@ -46788,13 +46813,13 @@
           <x14:formula1>
             <xm:f>Protected_fields!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K72:L77 K79:L82 K84:L229 K231:L349 K51:L70 F626:G659</xm:sqref>
+          <xm:sqref>K72:L77 K79:L82 K84:L229 K231:L349 K51:L70 F626:G660</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FABE638B-B816-7841-B40D-A7BABE629E8C}">
           <x14:formula1>
             <xm:f>Protected_fields!$A$7:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K350:K659</xm:sqref>
+          <xm:sqref>K350:K660</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -59340,21 +59365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E63EF7654EE1C3408A7B7B89599A8866" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45a6f702f8fa813c6da5dc61f6a5ca4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b386e231a7863091022eb36492eb7713">
     <xsd:element name="properties">
@@ -59468,10 +59478,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93AD55B-D8CB-4CCF-9B99-52A056A5F68B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED578873-0843-4B93-932F-68282ED643A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59485,17 +59518,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED578873-0843-4B93-932F-68282ED643A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93AD55B-D8CB-4CCF-9B99-52A056A5F68B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
+++ b/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EE298-E7BA-684C-BC47-9199C927B91A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F706E-2805-A645-8E30-23FD3FC9E267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-18640" windowWidth="28800" windowHeight="16460" tabRatio="711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13830,6 +13830,124 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="286">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -16482,124 +16600,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -16619,25 +16619,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1610" totalsRowShown="0" headerRowDxfId="285" headerRowBorderDxfId="284" tableBorderDxfId="283" totalsRowBorderDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1610" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:M1610" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L349">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="281"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="280"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Concept Type"/>
-    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="278"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="277"/>
-    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="276"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="275"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="274"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="273"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="272"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="270"/>
+    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -17121,7 +17121,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C661" sqref="C661"/>
+      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45389,7 +45389,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="269" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -45412,15 +45412,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="268" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="346" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="356" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="266" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="353" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
@@ -45443,17 +45443,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="265" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="352" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H349 H661:H1610">
-    <cfRule type="cellIs" dxfId="264" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="351" operator="equal">
       <formula>"OUA Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="263" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="343" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="344">
@@ -45476,7 +45476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="262" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="338" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="339">
@@ -45499,15 +45499,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="261" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="336" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="337" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K39 K41 K43:K50">
-    <cfRule type="cellIs" dxfId="259" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="377" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="378">
@@ -45530,7 +45530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H315">
-    <cfRule type="cellIs" dxfId="258" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="391" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="392">
@@ -45553,15 +45553,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="257" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="311" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="316" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="255" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="313" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -45584,28 +45584,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="312" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="253" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="306" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="307" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="251" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="297" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="302" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="249" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="299" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -45628,28 +45628,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="248" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="298" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="247" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="292" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="293" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="245" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="280" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="285" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="243" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="282" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="283">
@@ -45672,20 +45672,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="242" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="281" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="241" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="275" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="276" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="239" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="286" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="287">
@@ -45708,15 +45708,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="238" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="263" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="268" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="236" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="265" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="266">
@@ -45739,20 +45739,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="235" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="264" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="234" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="259" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="232" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="269" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -45775,15 +45775,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="231" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="254" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="229" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="251" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -45806,12 +45806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="228" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="227" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="243" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="244">
@@ -45834,23 +45834,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="226" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="241" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="224" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="232" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="237" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="222" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -45873,12 +45873,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="221" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="233" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="220" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="227">
@@ -45901,882 +45901,882 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="219" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="224" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="225" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:L82 K84:L84 K95:L98 K128:L132 K136:L139 K145:L152 K154:L155 K157:L163 K167:L171 K174:L185 K187:L188 K190:L190 K201:L201 K211:L212 K217:L217 K219:L222 K224:L224 K233:L233 K249:L250 K252:L255 K257:L258 K262:L271 K273:L273 K275:L277 K279:L279 K287:L289 K293:L293 K307:L311 K298:L304 K313:L313 K316:L316 K318:L318 K323:L324 K328:L333 K335:L335 K340:L340 K342:L342 K346:L346 K348:L348 K87:L93 K58:L77 K109:L118 K120:L125 K141:L141 K192:L193 K295:L295 K51:L56 K100:L107 K196:L199 K240:L246 K283:L284">
-    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="233" priority="219" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="220" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="232" priority="220" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202:L202">
-    <cfRule type="containsText" dxfId="215" priority="179" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="231" priority="179" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="180" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="230" priority="180" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:L83">
-    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="229" priority="213" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="228" priority="214" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:L78">
-    <cfRule type="containsText" dxfId="211" priority="215" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="227" priority="215" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="216" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="226" priority="216" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:L94">
-    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="225" priority="211" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="212" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="224" priority="212" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="223" priority="209" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="210" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="222" priority="210" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:L126">
-    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="221" priority="207" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="208" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="220" priority="208" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133:L133">
-    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="219" priority="205" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="206" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="218" priority="206" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="217" priority="203" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="204" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="216" priority="204" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:L144">
-    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="215" priority="201" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="202" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="214" priority="202" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="213" priority="199" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="200" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="212" priority="200" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="211" priority="197" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="198" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="210" priority="198" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L165">
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="209" priority="195" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="208" priority="196" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="207" priority="193" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="194" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="206" priority="194" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172:L172">
-    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="205" priority="191" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="192" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="204" priority="192" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="203" priority="189" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="190" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="202" priority="190" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186">
-    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="201" priority="187" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="188" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="200" priority="188" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:L189">
-    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="199" priority="185" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="186" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="198" priority="186" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:L195">
-    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="197" priority="183" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="184" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="196" priority="184" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:L200">
-    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="195" priority="181" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="182" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="194" priority="182" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:L203">
-    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="193" priority="177" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K203)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="192" priority="178" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204:L204">
-    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="191" priority="175" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="190" priority="176" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205:L205">
-    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="189" priority="173" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="188" priority="174" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:L206">
-    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="187" priority="171" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="186" priority="172" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207:L207">
-    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="185" priority="169" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="184" priority="170" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208:L208">
-    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="182" priority="168" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209:L209">
-    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="181" priority="165" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="180" priority="166" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210:L210">
-    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="179" priority="163" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="178" priority="164" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L213">
-    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="177" priority="161" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="176" priority="162" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214:L214">
-    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="175" priority="159" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K214)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="174" priority="160" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K214)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K215:L215">
-    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="173" priority="157" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="172" priority="158" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K216:L216">
-    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="171" priority="155" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="170" priority="156" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218:L218">
-    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="169" priority="153" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="168" priority="154" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K223:L223">
-    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="167" priority="151" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="166" priority="152" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K225:L225">
-    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="165" priority="149" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="164" priority="150" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K228:L228">
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="163" priority="147" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="162" priority="148" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K227:L227">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="161" priority="145" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="160" priority="146" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K226:L226">
-    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="159" priority="143" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="158" priority="144" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K229:L229">
-    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="157" priority="141" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="156" priority="142" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K256:L256">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="155" priority="139" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="154" priority="140" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K231:L231">
-    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="153" priority="137" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K231)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="152" priority="138" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K232:L232">
-    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="151" priority="135" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="150" priority="136" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K232)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K234:L234">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="149" priority="133" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="148" priority="134" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K235:L235">
-    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="147" priority="131" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="146" priority="132" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236:L236">
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="145" priority="129" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="144" priority="130" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237:L237">
-    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="142" priority="128" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K238:L238">
-    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="141" priority="125" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="140" priority="126" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K239:L239">
-    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="139" priority="123" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="138" priority="124" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K247:L247">
-    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="137" priority="121" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="136" priority="122" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248:L248">
-    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="135" priority="119" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="134" priority="120" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K251:L251">
-    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="133" priority="117" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="132" priority="118" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259:L259">
-    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="131" priority="115" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="130" priority="116" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K261:L261">
-    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="129" priority="113" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="128" priority="114" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272:L272">
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="127" priority="111" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="126" priority="112" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274:L274">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K274)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="124" priority="110" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278:L278">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="123" priority="107" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="122" priority="108" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280:L280">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="120" priority="106" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282:L282">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="119" priority="103" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="118" priority="104" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K285:L285">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="117" priority="101" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="116" priority="102" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K286:L286">
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="115" priority="99" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="114" priority="100" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K292:L292">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="112" priority="98" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K296:L296">
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="111" priority="95" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297:L297">
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="109" priority="93" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K297)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="108" priority="94" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="107" priority="91" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="106" priority="92" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:L306">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K312:L312">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="103" priority="87" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="102" priority="88" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314:L314">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K314)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="100" priority="86" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K314)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315:L315">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K315)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="98" priority="84" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K315)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317:L317">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K317)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K317)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319:L319">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K319)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="94" priority="80" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K319)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320:L320">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K320)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="92" priority="78" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K320)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321:L321">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K321)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="90" priority="76" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322:L322">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K322)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325:L325">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K325)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326:L326">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K326)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327:L327">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="83" priority="67" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="82" priority="68" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K334:L334">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K334)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K336:L336">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="79" priority="63" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K336)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="78" priority="64" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337:L337">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338:L338">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339:L339">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K339)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341:L341">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343:L343">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="69" priority="53" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="68" priority="54" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K344:L344">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="66" priority="52" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K347:L347">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K349:L349">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K349)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K345:L345">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:L85">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:L86">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:L57">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="54" priority="40" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108:L108">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:L119">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:L127">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134:L134">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:L135">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:L140">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:L191">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194:L194">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:L260">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281:L281">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K290:L290">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K291:L291">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K294:L294">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L166">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F626:G660">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",F626)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",F626)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59365,6 +59365,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E63EF7654EE1C3408A7B7B89599A8866" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45a6f702f8fa813c6da5dc61f6a5ca4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b386e231a7863091022eb36492eb7713">
     <xsd:element name="properties">
@@ -59478,22 +59493,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93AD55B-D8CB-4CCF-9B99-52A056A5F68B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A1DAB-9C66-464C-B102-526B5931F245}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED578873-0843-4B93-932F-68282ED643A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59507,20 +59523,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A1DAB-9C66-464C-B102-526B5931F245}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93AD55B-D8CB-4CCF-9B99-52A056A5F68B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
+++ b/xlsx/AMXM_2.0.0_Semantic_Correspondence_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE074804-2239-3F43-A005-8933BE7E9724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293333C0-D68E-5A48-A899-9E7E9889A4C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="-21100" windowWidth="26840" windowHeight="21100" tabRatio="711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="-21100" windowWidth="26840" windowHeight="21100" tabRatio="711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="7" r:id="rId1"/>
@@ -13830,6 +13830,124 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="286">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -16482,124 +16600,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -16619,25 +16619,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1648" totalsRowShown="0" headerRowDxfId="285" headerRowBorderDxfId="284" tableBorderDxfId="283" totalsRowBorderDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:M1648" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:M1648" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L349">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="281"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="280"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Information Concept" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data Concept" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data Concept Type"/>
-    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="278"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="277"/>
-    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="276"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="275"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="274"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="273"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="272"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="271"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="270"/>
+    <tableColumn id="15" xr3:uid="{F9F0C533-7E52-274C-B63C-3DC8BB8C1F1B}" name="Concept Identifier" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Concept Definition" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AIRM Concept Identifier" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{81D9E06D-0C8D-0A4B-9C75-236FEBFF412D}" name="Additional Traces" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special cases _x000a_(CR, OutOfScope, Not Established)" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="CR Number " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rationale" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Level of semantic correspondence" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Information Concept URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -17120,8 +17120,8 @@
   <dimension ref="A1:Q1648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D528" sqref="D528"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1657" sqref="C1657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46219,7 +46219,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="269" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="374" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -46242,15 +46242,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="268" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="346" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="356" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="266" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="353" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="354">
@@ -46273,17 +46273,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="265" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="352" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H350 H699:H1648">
-    <cfRule type="cellIs" dxfId="264" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="351" operator="equal">
       <formula>"OUA Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K28 K30:K39 K41 K43:K50 K19:K24 K3:K17">
-    <cfRule type="cellIs" dxfId="263" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="343" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="344">
@@ -46306,7 +46306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K16">
-    <cfRule type="cellIs" dxfId="262" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="338" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="339">
@@ -46329,15 +46329,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:L28 K30:L39 K41:L41 K43:L50 K19:L24 K3:L17">
-    <cfRule type="cellIs" dxfId="261" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="336" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="337" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K39 K41 K43:K50">
-    <cfRule type="cellIs" dxfId="259" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="377" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="378">
@@ -46360,7 +46360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H315">
-    <cfRule type="cellIs" dxfId="258" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="391" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="392">
@@ -46383,15 +46383,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="257" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="311" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="316" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="255" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="313" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="314">
@@ -46414,28 +46414,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="312" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="253" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="306" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="307" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="251" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="297" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="302" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="249" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="299" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -46458,28 +46458,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="248" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="298" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="247" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="292" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="293" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="245" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="280" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="285" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="243" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="282" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="283">
@@ -46502,20 +46502,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="242" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="281" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:L40">
-    <cfRule type="cellIs" dxfId="241" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="275" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="276" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="239" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="286" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="287">
@@ -46538,15 +46538,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="238" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="263" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="268" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="236" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="265" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="266">
@@ -46569,20 +46569,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="235" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="264" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="cellIs" dxfId="234" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="259" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="232" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="269" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -46605,15 +46605,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="231" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="254" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="229" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="251" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="252">
@@ -46636,12 +46636,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="228" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="cellIs" dxfId="227" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="243" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="244">
@@ -46664,23 +46664,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="cellIs" dxfId="226" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="241" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="242" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="224" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="232" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="237" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="222" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -46703,12 +46703,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="221" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="233" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="220" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
       <formula>OR(#REF!+#REF!)</formula>
     </cfRule>
     <cfRule type="colorScale" priority="227">
@@ -46731,882 +46731,882 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="219" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="224" operator="equal">
       <formula>"Generalised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="225" operator="equal">
       <formula>"Gap"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:L82 K84:L84 K95:L98 K128:L132 K136:L139 K145:L152 K154:L155 K157:L163 K167:L171 K174:L185 K187:L188 K190:L190 K201:L201 K211:L212 K217:L217 K219:L222 K224:L224 K233:L233 K249:L250 K252:L255 K257:L258 K262:L271 K273:L273 K275:L277 K279:L279 K287:L289 K293:L293 K307:L311 K298:L304 K313:L313 K316:L316 K318:L318 K323:L324 K328:L333 K335:L335 K340:L340 K342:L342 K346:L346 K348:L348 K87:L93 K58:L77 K109:L118 K120:L125 K141:L141 K192:L193 K295:L295 K51:L56 K100:L107 K196:L199 K240:L246 K283:L284">
-    <cfRule type="containsText" dxfId="217" priority="219" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="233" priority="219" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="220" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="232" priority="220" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202:L202">
-    <cfRule type="containsText" dxfId="215" priority="179" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="231" priority="179" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="180" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="230" priority="180" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:L83">
-    <cfRule type="containsText" dxfId="213" priority="213" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="229" priority="213" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="228" priority="214" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:L78">
-    <cfRule type="containsText" dxfId="211" priority="215" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="227" priority="215" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="216" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="226" priority="216" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94:L94">
-    <cfRule type="containsText" dxfId="209" priority="211" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="225" priority="211" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="212" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="224" priority="212" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:L99">
-    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="223" priority="209" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="210" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="222" priority="210" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126:L126">
-    <cfRule type="containsText" dxfId="205" priority="207" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="221" priority="207" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="208" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="220" priority="208" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133:L133">
-    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="219" priority="205" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="206" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="218" priority="206" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142:L142">
-    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="217" priority="203" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="204" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="216" priority="204" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144:L144">
-    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="215" priority="201" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="202" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="214" priority="202" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153:L153">
-    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="213" priority="199" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="200" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="212" priority="200" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K156:L156">
-    <cfRule type="containsText" dxfId="195" priority="197" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="211" priority="197" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="198" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="210" priority="198" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:L165">
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="209" priority="195" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="196" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="208" priority="196" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="containsText" dxfId="191" priority="193" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="207" priority="193" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="194" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="206" priority="194" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172:L172">
-    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="205" priority="191" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K172)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="192" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="204" priority="192" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173:L173">
-    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="203" priority="189" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="190" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="202" priority="190" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L186">
-    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="201" priority="187" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="188" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="200" priority="188" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:L189">
-    <cfRule type="containsText" dxfId="183" priority="185" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="199" priority="185" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K189)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="186" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="198" priority="186" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:L195">
-    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="197" priority="183" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="184" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="196" priority="184" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:L200">
-    <cfRule type="containsText" dxfId="179" priority="181" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="195" priority="181" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K200)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="182" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="194" priority="182" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:L203">
-    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="193" priority="177" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K203)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="178" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="192" priority="178" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204:L204">
-    <cfRule type="containsText" dxfId="175" priority="175" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="191" priority="175" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K204)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="190" priority="176" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205:L205">
-    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="189" priority="173" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K205)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="188" priority="174" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:L206">
-    <cfRule type="containsText" dxfId="171" priority="171" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="187" priority="171" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="186" priority="172" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207:L207">
-    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="185" priority="169" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="184" priority="170" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208:L208">
-    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="182" priority="168" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209:L209">
-    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="181" priority="165" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="180" priority="166" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210:L210">
-    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="179" priority="163" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="164" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="178" priority="164" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L213">
-    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="177" priority="161" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="176" priority="162" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214:L214">
-    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="175" priority="159" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K214)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="174" priority="160" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K214)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K215:L215">
-    <cfRule type="containsText" dxfId="157" priority="157" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="173" priority="157" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="158" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="172" priority="158" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K216:L216">
-    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="171" priority="155" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="170" priority="156" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K218:L218">
-    <cfRule type="containsText" dxfId="153" priority="153" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="169" priority="153" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="154" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="168" priority="154" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K223:L223">
-    <cfRule type="containsText" dxfId="151" priority="151" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="167" priority="151" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="152" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="166" priority="152" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K225:L225">
-    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="165" priority="149" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="164" priority="150" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K228:L228">
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="163" priority="147" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="162" priority="148" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K227:L227">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="161" priority="145" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="146" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="160" priority="146" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K226:L226">
-    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="159" priority="143" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="158" priority="144" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K229:L229">
-    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="157" priority="141" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="142" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="156" priority="142" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K256:L256">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="155" priority="139" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="154" priority="140" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K231:L231">
-    <cfRule type="containsText" dxfId="137" priority="137" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="153" priority="137" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K231)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="138" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="152" priority="138" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K231)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K232:L232">
-    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="151" priority="135" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K232)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="136" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="150" priority="136" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K232)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K234:L234">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="149" priority="133" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="148" priority="134" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K235:L235">
-    <cfRule type="containsText" dxfId="131" priority="131" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="147" priority="131" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="132" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="146" priority="132" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K236:L236">
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="145" priority="129" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="144" priority="130" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K237:L237">
-    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="142" priority="128" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K238:L238">
-    <cfRule type="containsText" dxfId="125" priority="125" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="141" priority="125" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="126" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="140" priority="126" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K239:L239">
-    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="139" priority="123" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="138" priority="124" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K247:L247">
-    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="137" priority="121" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="136" priority="122" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K248:L248">
-    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="135" priority="119" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="134" priority="120" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K251:L251">
-    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="133" priority="117" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="132" priority="118" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K259:L259">
-    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="131" priority="115" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="130" priority="116" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K261:L261">
-    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="129" priority="113" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="128" priority="114" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272:L272">
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="127" priority="111" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K272)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="126" priority="112" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274:L274">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K274)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="124" priority="110" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278:L278">
-    <cfRule type="containsText" dxfId="107" priority="107" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="123" priority="107" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K278)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="108" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="122" priority="108" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280:L280">
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K280)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="120" priority="106" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282:L282">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="119" priority="103" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K282)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="118" priority="104" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K285:L285">
-    <cfRule type="containsText" dxfId="101" priority="101" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="117" priority="101" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="102" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="116" priority="102" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K286:L286">
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="115" priority="99" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K286)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="114" priority="100" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K286)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K292:L292">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="112" priority="98" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K296:L296">
-    <cfRule type="containsText" dxfId="95" priority="95" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="111" priority="95" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="96" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K297:L297">
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="109" priority="93" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K297)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="108" priority="94" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="containsText" dxfId="91" priority="91" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="107" priority="91" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="106" priority="92" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K306:L306">
-    <cfRule type="containsText" dxfId="89" priority="89" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K306)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K306)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K312:L312">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="103" priority="87" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K312)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="102" priority="88" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K312)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K314:L314">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K314)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="100" priority="86" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K314)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315:L315">
-    <cfRule type="containsText" dxfId="83" priority="83" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K315)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="84" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="98" priority="84" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K315)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K317:L317">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K317)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K317)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K319:L319">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K319)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="94" priority="80" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K319)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K320:L320">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K320)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="92" priority="78" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K320)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K321:L321">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K321)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="90" priority="76" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K321)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K322:L322">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K322)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K325:L325">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K325)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K326:L326">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K326)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K327:L327">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="83" priority="67" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K327)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="82" priority="68" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K327)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K334:L334">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K334)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K334)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K336:L336">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="79" priority="63" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K336)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="78" priority="64" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K336)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K337:L337">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K337)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K337)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K338:L338">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K338)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K338)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K339:L339">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K339)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="72" priority="58" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K339)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K341:L341">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K343:L343">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="69" priority="53" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="68" priority="54" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K344:L344">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K344)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="66" priority="52" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K344)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K347:L347">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K349:L350">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K349)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K349)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K345:L345">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:L85">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:L86">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:L57">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="54" priority="40" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108:L108">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K119:L119">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K127:L127">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134:L134">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K135:L135">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:L140">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143:L143">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:L191">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194:L194">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:L260">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281:L281">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K281)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K290:L290">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K291:L291">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K294:L294">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L166">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",L166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",L166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",K305)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",K305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F660:G698">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Generalised">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Generalised">
       <formula>NOT(ISERROR(SEARCH("Generalised",F660)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Gap">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Gap">
       <formula>NOT(ISERROR(SEARCH("Gap",F660)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60195,21 +60195,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E63EF7654EE1C3408A7B7B89599A8866" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45a6f702f8fa813c6da5dc61f6a5ca4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b386e231a7863091022eb36492eb7713">
     <xsd:element name="properties">
@@ -60323,10 +60308,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A1DAB-9C66-464C-B102-526B5931F245}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED578873-0843-4B93-932F-68282ED643A4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -60340,17 +60348,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED578873-0843-4B93-932F-68282ED643A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A1DAB-9C66-464C-B102-526B5931F245}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>